--- a/biology/Médecine/Praxis_(revue)/Praxis_(revue).xlsx
+++ b/biology/Médecine/Praxis_(revue)/Praxis_(revue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Praxis est une revue médicale publiée en Suisse sous forme hebdomadaire, connue aussi sous le nom de Schweizerische Rundschau für Medizin ou Revue Suisse de médecine, créée en 1909/11 et publiée dès 1912, en principe en allemand et en français, voire en italien. Elle est dotée d'une rédaction usant du principe de l'évaluation par les pairs en vue de la formation continue du milieu professionnel médical. Elle est inscrite dans Medline, Embase et Scopus. La revue comporte entre autres les rubriques Continuous Medical Education et Diagnose.
@@ -513,7 +525,9 @@
           <t>Histoire de la publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Revue suisse de médecine parait pour la première fois épisodiquement en 1909 et se développe dès 1923 sous le titre de Praxis, sa première année complète de publication ne s'affirme qu'en 1912. Un rapport avec la première thymectomie réalisée par Ferdinand Sauerbruch, et la constitution du cercle scientifique en l'occurrence rattaché à l'hôpital universitaire de Zürich corrélé dans un esprit interdisciplinaire avec le conseil scientifique lié à l'École polytechnique fédérale de Zurich parait attesté rétroactivement en 1923-1925 lors de l'adoption du titre complémentaire.
 De 1923 à 1955, la revue porte le titre de Praxis: Revue suisse de médecine et parait aux Éditions Hans-Huber-Verlag à Berne. Dès 1956, un changement d'éditeur s'impose et la publication de la revue est confiée sous le même titre à Hallwag toujours à Berne. En 1970 et jusqu'en 1994, cet organe s'intitule Revue suisse de médecine PRAXIS avant de reprendre le titre initial, toujours chez l'éditeur Hallwag puis, dès septembre 1996 ä nouveau chez Hans-Huber-Verlag.
